--- a/clean/name/08036C.xlsx
+++ b/clean/name/08036C.xlsx
@@ -1085,11 +1085,6 @@
           <t>正常血漿APTT平均值</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>APTT</t>
-        </is>
-      </c>
       <c r="D39">
         <v>21437</v>
       </c>
